--- a/medicine/Mort/Sourire_kabyle/Sourire_kabyle.xlsx
+++ b/medicine/Mort/Sourire_kabyle/Sourire_kabyle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sourire kabyle était une méthode d'assassinat employée par des éléments du FLN pendant la guerre d'Algérie, consistant en l’égorgement de la victime[1]. Cette méthode était répandue parmi les combattants de Kabylie, qui était alors l'un des principaux foyers d’affrontements.   
-Des Harkis en furent victimes[2]. Cette pratique a également été appliquée par le Groupe islamique armé (GIA) durant la Guerre civile algérienne dans les années 1990[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sourire kabyle était une méthode d'assassinat employée par des éléments du FLN pendant la guerre d'Algérie, consistant en l’égorgement de la victime. Cette méthode était répandue parmi les combattants de Kabylie, qui était alors l'un des principaux foyers d’affrontements.   
+Des Harkis en furent victimes. Cette pratique a également été appliquée par le Groupe islamique armé (GIA) durant la Guerre civile algérienne dans les années 1990.
 Selon Jacques Duquesne, journaliste à La Croix à Alger à la fin des années 1950 :
-« On parlait dans l'armée du « sourire kabyle » : égorgement de pieds-noirs ou de soldats français dont on avait tranché le cou et fourré le sexe dans la plaie[4]. »
-Parfois, notamment lors de l'embuscade de Palestro en 1956, cette pratique a été appliquée sur des cadavres, s'y ajoutant l'éviscération[5].
+« On parlait dans l'armée du « sourire kabyle » : égorgement de pieds-noirs ou de soldats français dont on avait tranché le cou et fourré le sexe dans la plaie. »
+Parfois, notamment lors de l'embuscade de Palestro en 1956, cette pratique a été appliquée sur des cadavres, s'y ajoutant l'éviscération.
 Une pratique proche qui consiste à « élargir » la bouche de la victime, et non sa gorge est connue dans le monde anglophone comme le Glasgow smile.
 </t>
         </is>
